--- a/Data/Unit7.xlsx
+++ b/Data/Unit7.xlsx
@@ -10,7 +10,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8232"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="11028"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,9 +351,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,10 +675,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="1">
-        <v>44034.875821759262</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
+        <v>44055.473263888889</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44056</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -697,10 +698,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="1">
-        <v>44034.875798611109</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
+        <v>44055.473449074074</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44056</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -720,10 +721,10 @@
         <v>19</v>
       </c>
       <c r="C4" s="1">
-        <v>44034.875717592593</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
+        <v>44055.473263888889</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44056</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -743,10 +744,10 @@
         <v>23</v>
       </c>
       <c r="C5" s="1">
-        <v>44034.875590277778</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+        <v>44055.473263888889</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44056</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
@@ -769,10 +770,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="1">
-        <v>44034.875578703701</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
+        <v>44055.473263888889</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44056</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
@@ -792,10 +793,10 @@
         <v>33</v>
       </c>
       <c r="C7" s="1">
-        <v>44034.875428240739</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
+        <v>44055.473252314812</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44056</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
@@ -815,10 +816,10 @@
         <v>38</v>
       </c>
       <c r="C8" s="1">
-        <v>44034.875358796293</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
+        <v>44055.473252314812</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44056</v>
       </c>
       <c r="F8" t="s">
         <v>39</v>
@@ -838,10 +839,10 @@
         <v>42</v>
       </c>
       <c r="C9" s="1">
-        <v>44034.8752662037</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
+        <v>44055.473252314812</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44056</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
@@ -864,10 +865,10 @@
         <v>47</v>
       </c>
       <c r="C10" s="1">
-        <v>44034.875231481485</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
+        <v>44055.473252314812</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44056</v>
       </c>
       <c r="E10" t="s">
         <v>48</v>
@@ -890,10 +891,10 @@
         <v>52</v>
       </c>
       <c r="C11" s="1">
-        <v>44034.875219907408</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+        <v>44055.473252314812</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44056</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -913,10 +914,10 @@
         <v>56</v>
       </c>
       <c r="C12" s="1">
-        <v>44034.875185185185</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
+        <v>44055.473252314812</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44056</v>
       </c>
       <c r="F12" t="s">
         <v>57</v>
@@ -936,10 +937,10 @@
         <v>60</v>
       </c>
       <c r="C13" s="1">
-        <v>44034.875162037039</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
+        <v>44055.473252314812</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44056</v>
       </c>
       <c r="E13" t="s">
         <v>61</v>
@@ -962,10 +963,10 @@
         <v>65</v>
       </c>
       <c r="C14" s="1">
-        <v>44034.875162037039</v>
-      </c>
-      <c r="D14">
-        <v>7</v>
+        <v>44055.473240740743</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44056</v>
       </c>
       <c r="F14" t="s">
         <v>66</v>
@@ -985,10 +986,10 @@
         <v>38</v>
       </c>
       <c r="C15" s="1">
-        <v>44034.875092592592</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
+        <v>44055.473240740743</v>
+      </c>
+      <c r="D15" s="2">
+        <v>44056</v>
       </c>
       <c r="F15" t="s">
         <v>69</v>
@@ -1008,10 +1009,10 @@
         <v>72</v>
       </c>
       <c r="C16" s="1">
-        <v>44034.875057870369</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
+        <v>44055.473240740743</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44056</v>
       </c>
       <c r="F16" t="s">
         <v>73</v>
@@ -1031,10 +1032,10 @@
         <v>76</v>
       </c>
       <c r="C17" s="1">
-        <v>44034.875</v>
-      </c>
-      <c r="D17">
-        <v>7</v>
+        <v>44055.473240740743</v>
+      </c>
+      <c r="D17" s="2">
+        <v>44056</v>
       </c>
       <c r="F17" t="s">
         <v>77</v>
@@ -1051,10 +1052,10 @@
         <v>79</v>
       </c>
       <c r="C18" s="1">
-        <v>44034.874918981484</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
+        <v>44055.473240740743</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44056</v>
       </c>
       <c r="F18" t="s">
         <v>80</v>
@@ -1074,10 +1075,10 @@
         <v>83</v>
       </c>
       <c r="C19" s="1">
-        <v>44034.874895833331</v>
-      </c>
-      <c r="D19">
-        <v>7</v>
+        <v>44055.473240740743</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44056</v>
       </c>
       <c r="F19" t="s">
         <v>84</v>
@@ -1097,10 +1098,10 @@
         <v>87</v>
       </c>
       <c r="C20" s="1">
-        <v>44034.874837962961</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
+        <v>44055.473229166666</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44056</v>
       </c>
       <c r="F20" t="s">
         <v>88</v>
@@ -1120,10 +1121,10 @@
         <v>29</v>
       </c>
       <c r="C21" s="1">
-        <v>44034.874780092592</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
+        <v>44055.473229166666</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44056</v>
       </c>
       <c r="F21" t="s">
         <v>91</v>
@@ -1143,10 +1144,10 @@
         <v>94</v>
       </c>
       <c r="C22" s="1">
-        <v>44034.874745370369</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
+        <v>44055.473194444443</v>
+      </c>
+      <c r="D22" s="2">
+        <v>44056</v>
       </c>
       <c r="F22" t="s">
         <v>95</v>
